--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805E0439-BB73-4DE5-87E0-4A657A8C3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F86E0-04DE-4A32-A7E1-4853C3EFF516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Storage" sheetId="106" r:id="rId1"/>
@@ -1905,7 +1905,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="31">
         <v>50</v>
@@ -2383,7 +2383,7 @@
         <v>4.04</v>
       </c>
       <c r="R9" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="31">
         <v>50</v>
@@ -2464,7 +2464,7 @@
         <v>4.08</v>
       </c>
       <c r="R10" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="31">
         <v>50</v>
@@ -2545,7 +2545,7 @@
         <v>4.12</v>
       </c>
       <c r="R11" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="31">
         <v>200</v>
@@ -2628,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="R12" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="31">
         <v>150</v>
@@ -2692,6 +2692,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2837,35 +2852,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2887,9 +2877,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Simplified-Technical-Representation\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F86E0-04DE-4A32-A7E1-4853C3EFF516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52E513-E067-4DB6-AAC2-2EA07928EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Storage" sheetId="106" r:id="rId1"/>
@@ -1905,7 +1905,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,7 @@
         <v>4.04</v>
       </c>
       <c r="R9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="31">
         <v>50</v>
@@ -2464,7 +2464,7 @@
         <v>4.08</v>
       </c>
       <c r="R10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="31">
         <v>50</v>
@@ -2692,21 +2692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2852,10 +2837,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2877,19 +2887,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52E513-E067-4DB6-AAC2-2EA07928EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C254C-21C5-4D4E-B6E0-F4ED1841A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34275" yWindow="8430" windowWidth="28800" windowHeight="15030" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Storage" sheetId="106" r:id="rId1"/>
@@ -635,12 +635,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -1905,55 +1905,55 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="12" style="5" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.42578125" style="5"/>
+    <col min="39" max="16384" width="11.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2047,7 +2047,7 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
     </row>
-    <row r="4" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2082,7 +2082,7 @@
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
     </row>
-    <row r="5" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -2117,7 +2117,7 @@
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
     </row>
-    <row r="6" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="AJ7" s="24"/>
       <c r="AK7" s="24"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
@@ -2292,8 +2292,12 @@
       <c r="J8" s="28">
         <v>0.95</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
       <c r="M8" s="30"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -2347,7 +2351,7 @@
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B9" s="18" t="s">
         <v>35</v>
       </c>
@@ -2373,8 +2377,12 @@
       <c r="J9" s="28">
         <v>0.95</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
       <c r="M9" s="30"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
@@ -2428,7 +2436,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="24"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B10" s="18" t="s">
         <v>36</v>
       </c>
@@ -2454,8 +2462,12 @@
       <c r="J10" s="28">
         <v>0.95</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
       <c r="M10" s="30"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
@@ -2509,7 +2521,7 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -2535,8 +2547,12 @@
       <c r="J11" s="28">
         <v>0.95</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
       <c r="M11" s="30"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
@@ -2590,7 +2606,7 @@
       <c r="AJ11" s="24"/>
       <c r="AK11" s="24"/>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.5">
       <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
@@ -2616,8 +2632,12 @@
       <c r="J12" s="28">
         <v>0.95</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0</v>
+      </c>
       <c r="M12" s="30">
         <v>10</v>
       </c>
@@ -2673,7 +2693,7 @@
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.5">
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
@@ -2838,18 +2858,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2871,6 +2891,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2884,12 +2912,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C254C-21C5-4D4E-B6E0-F4ED1841A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FB609F-8F19-4567-8BDE-E4E0E2C9C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34275" yWindow="8430" windowWidth="28800" windowHeight="15030" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38320" yWindow="5560" windowWidth="28800" windowHeight="15240" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Storage" sheetId="106" r:id="rId1"/>
@@ -1905,7 +1905,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9955F5D4-CE8B-40BC-A702-014679118D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5E124E-0A23-4AB6-A859-727341C9754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,15 +1429,21 @@
         <v>97</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="14">
         <v>600</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.93</v>
+      </c>
       <c r="L8" s="15">
         <v>0</v>
       </c>
@@ -1456,11 +1462,21 @@
       <c r="Q8" s="13">
         <v>1</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="R8" s="15">
+        <v>3</v>
+      </c>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1</v>
+      </c>
+      <c r="U8" s="15">
+        <v>100</v>
+      </c>
+      <c r="V8" s="15">
+        <v>100</v>
+      </c>
       <c r="W8" s="14">
         <v>1600</v>
       </c>

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52E513-E067-4DB6-AAC2-2EA07928EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE3BA25-1682-422F-8915-C7014CA6065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Storage" sheetId="106" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>[MW]</t>
   </si>
@@ -173,9 +173,6 @@
     <t>MaxCons</t>
   </si>
   <si>
-    <t>BESS</t>
-  </si>
-  <si>
     <t>IsHydro</t>
   </si>
   <si>
@@ -248,45 +245,12 @@
     <t>FirmCapCoef</t>
   </si>
   <si>
-    <t>StorageHydro</t>
-  </si>
-  <si>
-    <t>BESS3</t>
-  </si>
-  <si>
-    <t>BESS5</t>
-  </si>
-  <si>
-    <t>BESS7</t>
-  </si>
-  <si>
-    <t>BESS8</t>
-  </si>
-  <si>
     <t>[€/MW/year]</t>
   </si>
   <si>
     <t>[€/MWh/year]</t>
   </si>
   <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Node_3</t>
-  </si>
-  <si>
-    <t>Node_1</t>
-  </si>
-  <si>
-    <t>Node_5</t>
-  </si>
-  <si>
-    <t>Node_4</t>
-  </si>
-  <si>
-    <t>Node_6</t>
-  </si>
-  <si>
     <t>Power - Storage</t>
   </si>
   <si>
@@ -303,24 +267,6 @@
   </si>
   <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>PHS_Test1</t>
-  </si>
-  <si>
-    <t>BESS_Test1</t>
-  </si>
-  <si>
-    <t>BESS_Test2</t>
-  </si>
-  <si>
-    <t>BESS_Test3</t>
-  </si>
-  <si>
-    <t>BESS_Test4</t>
-  </si>
-  <si>
-    <t>BESS_Test5</t>
   </si>
 </sst>
 </file>
@@ -635,12 +581,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
     <cellStyle name="Hervorhebung" xfId="3" xr:uid="{8678E36F-C265-4DFE-9FC6-523CB5A8AE55}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{18929256-C3F4-489D-8BCE-E323A983834F}"/>
-    <cellStyle name="Output" xfId="2" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="5" xr:uid="{5DF4A97E-8529-4A9B-8CDD-1ED3E5DC1118}"/>
     <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Standard 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
@@ -1905,10 +1851,10 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
@@ -1950,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="2:37" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1958,7 +1904,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
@@ -1970,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>4</v>
@@ -1991,55 +1937,55 @@
         <v>5</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="W3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="AB3" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
@@ -2119,7 +2065,7 @@
     </row>
     <row r="6" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>0</v>
@@ -2137,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>1</v>
@@ -2152,31 +2098,31 @@
         <v>1</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>1</v>
@@ -2195,71 +2141,37 @@
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29">
-        <v>600</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="30">
-        <v>300</v>
-      </c>
-      <c r="L7" s="30">
-        <v>-300</v>
-      </c>
-      <c r="M7" s="30">
-        <v>2</v>
-      </c>
-      <c r="N7" s="29">
-        <v>0.3125</v>
-      </c>
-      <c r="O7" s="29">
-        <v>0.78129999999999999</v>
-      </c>
-      <c r="P7" s="22">
-        <v>1</v>
-      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="22"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="31">
-        <v>1600</v>
-      </c>
+      <c r="V7" s="31"/>
       <c r="W7" s="29"/>
       <c r="X7" s="28"/>
-      <c r="Y7" s="28">
-        <v>0.25</v>
-      </c>
+      <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
-      <c r="AB7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>2010</v>
-      </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="3">
-        <v>47.491300000000003</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>12.818199999999999</v>
-      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="23"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -2267,80 +2179,35 @@
       <c r="AK7" s="24"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>50</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <v>50</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="J8" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="28">
-        <v>4</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="31">
-        <v>50</v>
-      </c>
-      <c r="T8" s="31">
-        <v>3821.0756000000001</v>
-      </c>
-      <c r="U8" s="31">
-        <v>15584.302299999999</v>
-      </c>
-      <c r="V8" s="31">
-        <v>4</v>
-      </c>
-      <c r="W8" s="29">
-        <v>300000</v>
-      </c>
-      <c r="X8" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z8" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA8" s="28">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="28"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="27">
-        <v>46.77</v>
-      </c>
-      <c r="AF8" s="27">
-        <v>13.746700000000001</v>
-      </c>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
       <c r="AG8" s="23"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -2348,80 +2215,35 @@
       <c r="AK8" s="24"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="20">
-        <v>8</v>
-      </c>
-      <c r="F9" s="29">
-        <v>50</v>
-      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="29">
-        <v>50</v>
-      </c>
-      <c r="I9" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="J9" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="28">
-        <v>4.04</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1</v>
-      </c>
-      <c r="S9" s="31">
-        <v>50</v>
-      </c>
-      <c r="T9" s="31">
-        <v>3871.0756000000001</v>
-      </c>
-      <c r="U9" s="31">
-        <v>15484.302299999999</v>
-      </c>
-      <c r="V9" s="31">
-        <v>4</v>
-      </c>
-      <c r="W9" s="29">
-        <v>305000</v>
-      </c>
-      <c r="X9" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z9" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA9" s="28">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="28"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="27">
-        <v>46.77</v>
-      </c>
-      <c r="AF9" s="27">
-        <v>13.746700000000001</v>
-      </c>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
       <c r="AG9" s="23"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -2429,80 +2251,35 @@
       <c r="AK9" s="24"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>50</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="29">
-        <v>50</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="J10" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="28">
-        <v>4.08</v>
-      </c>
-      <c r="R10" s="22">
-        <v>1</v>
-      </c>
-      <c r="S10" s="31">
-        <v>50</v>
-      </c>
-      <c r="T10" s="31">
-        <v>3921.0756000000001</v>
-      </c>
-      <c r="U10" s="31">
-        <v>15384.302299999999</v>
-      </c>
-      <c r="V10" s="31">
-        <v>4</v>
-      </c>
-      <c r="W10" s="29">
-        <v>310000</v>
-      </c>
-      <c r="X10" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z10" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA10" s="28">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="28"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="27">
-        <v>46.561055000000003</v>
-      </c>
-      <c r="AF10" s="27">
-        <v>14.479570000000001</v>
-      </c>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
       <c r="AG10" s="23"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
@@ -2510,80 +2287,35 @@
       <c r="AK10" s="24"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="20">
-        <v>29</v>
-      </c>
-      <c r="F11" s="29">
-        <v>50</v>
-      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="29">
-        <v>50</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="J11" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="28">
-        <v>4.12</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0</v>
-      </c>
-      <c r="S11" s="31">
-        <v>200</v>
-      </c>
-      <c r="T11" s="31">
-        <v>3971.0756000000001</v>
-      </c>
-      <c r="U11" s="31">
-        <v>15284.302299999999</v>
-      </c>
-      <c r="V11" s="31">
-        <v>4</v>
-      </c>
-      <c r="W11" s="29">
-        <v>315000</v>
-      </c>
-      <c r="X11" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z11" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA11" s="28">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="28"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="27">
-        <v>47.055199999999999</v>
-      </c>
-      <c r="AF11" s="27">
-        <v>9.9000199999999996</v>
-      </c>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
       <c r="AG11" s="23"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
@@ -2591,82 +2323,35 @@
       <c r="AK11" s="24"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="29">
-        <v>50</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <v>50</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0.95</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="30">
-        <v>10</v>
-      </c>
+      <c r="M12" s="30"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="28">
-        <v>10</v>
-      </c>
-      <c r="R12" s="22">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31">
-        <v>150</v>
-      </c>
-      <c r="T12" s="31">
-        <v>4000</v>
-      </c>
-      <c r="U12" s="31">
-        <v>16000</v>
-      </c>
-      <c r="V12" s="31">
-        <v>4</v>
-      </c>
-      <c r="W12" s="29">
-        <v>320000</v>
-      </c>
-      <c r="X12" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="Z12" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA12" s="28">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="28"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="27">
-        <v>47.066462000000001</v>
-      </c>
-      <c r="AF12" s="27">
-        <v>9.9157949999999992</v>
-      </c>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
       <c r="AG12" s="23"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
@@ -2692,6 +2377,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2837,35 +2537,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2887,9 +2562,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -606,7 +606,7 @@
     <col width="24.5709375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/example/Power_Storage.xlsx
+++ b/data/example/Power_Storage.xlsx
@@ -41,13 +41,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -64,38 +64,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -574,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -598,12 +598,12 @@
     <col width="20.7109375" customWidth="1" min="22" max="22"/>
     <col width="22.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
-    <col width="20.2109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="25" max="25"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
     <col width="15.7109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
-    <col width="24.5709375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="29" max="29"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2004,6 +2004,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>